--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3603.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3603.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.485115883778945</v>
+        <v>1.23538613319397</v>
       </c>
       <c r="B1">
-        <v>3.072441055515548</v>
+        <v>2.626508712768555</v>
       </c>
       <c r="C1">
-        <v>4.101561532797787</v>
+        <v>5.109991550445557</v>
       </c>
       <c r="D1">
-        <v>1.489036722767764</v>
+        <v>2.032225370407104</v>
       </c>
       <c r="E1">
-        <v>0.8058547069146105</v>
+        <v>1.174598217010498</v>
       </c>
     </row>
   </sheetData>
